--- a/Output/Middleton_2000 Middleton 2000 OS DTIC parameters.xlsx
+++ b/Output/Middleton_2000 Middleton 2000 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.83658401006587</v>
+        <v>-1.8496768167544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0953889499198419</v>
+        <v>0.0713815590614557</v>
       </c>
       <c r="D2" t="n">
         <v>774.067034982448</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.197722113791001</v>
+        <v>-0.201232123211273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0419833442232253</v>
+        <v>0.036854147082554</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.996763855679523</v>
+        <v>0.999415283650382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0838183464811693</v>
+        <v>0.0710460548893685</v>
       </c>
       <c r="D2" t="n">
         <v>751.490761476343</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.717453756337411</v>
+        <v>-0.710160646468684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0396326427899414</v>
+        <v>0.0371536156696288</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.35404457784318</v>
+        <v>-1.37351061111828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.128536016420039</v>
+        <v>0.0975451183537697</v>
       </c>
       <c r="D2" t="n">
         <v>756.862501820124</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.19415857248779</v>
+        <v>1.17954533219363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0721988778408155</v>
+        <v>0.064612489657263</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.56961926885366</v>
+        <v>-1.59135908631409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130599670361597</v>
+        <v>0.0932982144745055</v>
       </c>
       <c r="D2" t="n">
         <v>760.815836285018</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0906814699721602</v>
+        <v>-0.0889611671755879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0202486490166893</v>
+        <v>0.0166836023152949</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00909905176681011</v>
+        <v>0.00509532697404409</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000608601100755223</v>
+        <v>-0.000288346995536712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000608601100755223</v>
+        <v>-0.000288346995536712</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00176260119216583</v>
+        <v>0.00135822815718253</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00702551520683735</v>
+        <v>0.00504754191534316</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000964577313751146</v>
+        <v>-0.00121965787689204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000964577313751146</v>
+        <v>-0.00121965787689204</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00157074637451509</v>
+        <v>0.00138039115732648</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0165215075171325</v>
+        <v>0.00951505011465093</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00281371419096406</v>
+        <v>0.00140889801365611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00281371419096406</v>
+        <v>0.00140889801365611</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005212677961473</v>
+        <v>0.00417477381970992</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0170562738985578</v>
+        <v>0.00870455682413083</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00191837604648169</v>
+        <v>-0.00105036762195595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00191837604648169</v>
+        <v>-0.00105036762195595</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000410007787001074</v>
+        <v>0.000278342586214914</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Middleton_2000 Middleton 2000 OS DTIC parameters.xlsx
+++ b/Output/Middleton_2000 Middleton 2000 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.8496768167544</v>
+        <v>-1.83658401006587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0713815590614557</v>
+        <v>0.0953889499198419</v>
       </c>
       <c r="D2" t="n">
         <v>774.067034982448</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.201232123211273</v>
+        <v>-0.197722113791001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.036854147082554</v>
+        <v>0.0419833442232253</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.999415283650382</v>
+        <v>0.996763855679523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0710460548893685</v>
+        <v>0.0838183464811693</v>
       </c>
       <c r="D2" t="n">
         <v>751.490761476343</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.710160646468684</v>
+        <v>-0.717453756337411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0371536156696288</v>
+        <v>0.0396326427899414</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.37351061111828</v>
+        <v>-1.35404457784318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0975451183537697</v>
+        <v>0.128536016420039</v>
       </c>
       <c r="D2" t="n">
         <v>756.862501820124</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.17954533219363</v>
+        <v>0.175614504858684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.064612489657263</v>
+        <v>0.0605189546240113</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.59135908631409</v>
+        <v>-1.56961926885366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0932982144745055</v>
+        <v>0.130599670361597</v>
       </c>
       <c r="D2" t="n">
         <v>760.815836285018</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0889611671755879</v>
+        <v>-0.0906814699721602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0166836023152949</v>
+        <v>0.0202486490166893</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00509532697404409</v>
+        <v>0.00909905176681011</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000288346995536712</v>
+        <v>-0.000608601100755223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000288346995536712</v>
+        <v>-0.000608601100755223</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00135822815718253</v>
+        <v>0.00176260119216583</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00504754191534316</v>
+        <v>0.00702551520683735</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00121965787689204</v>
+        <v>-0.000964577313751146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00121965787689204</v>
+        <v>-0.000964577313751146</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00138039115732648</v>
+        <v>0.00157074637451509</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00951505011465093</v>
+        <v>0.0165215075171325</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00140889801365611</v>
+        <v>0.0023704957571454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00140889801365611</v>
+        <v>0.0023704957571454</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00417477381970992</v>
+        <v>0.00366254386878314</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00870455682413083</v>
+        <v>0.0170562738985578</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00105036762195595</v>
+        <v>-0.00191837604648169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00105036762195595</v>
+        <v>-0.00191837604648169</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000278342586214914</v>
+        <v>0.000410007787001074</v>
       </c>
     </row>
   </sheetData>
